--- a/0_Excels/Diagrams/BenfordOnFib.xlsx
+++ b/0_Excels/Diagrams/BenfordOnFib.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kilian\Documents\Schule\2023_24\02_W-Sem M\4 Code\Python\BenfordsLaw\0_Excels\Diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F9F20F-6A78-4DB6-AE32-DCBEB702FA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB65F176-E6F4-4DCC-8F78-F9D877CD00ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,10 @@
     <t>i</t>
   </si>
   <si>
-    <t>Fib_10</t>
+    <t>Fib_100</t>
   </si>
   <si>
-    <t>Fib_100</t>
+    <t>Fib_1000</t>
   </si>
 </sst>
 </file>
@@ -371,13 +371,10 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="4.81640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
